--- a/data/event_descriptions.xlsx
+++ b/data/event_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/College/Senior Year (2022-2023)/Fall Semester (2022)/CS171/dmkelly848/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED63321-EA57-BF48-ACA4-F57BFEE7F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB0018-EAB4-894B-849C-A0C52AA967FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{CF366075-380A-E34F-97A0-BD26EBF50283}"/>
+    <workbookView xWindow="7800" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{CF366075-380A-E34F-97A0-BD26EBF50283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Decathlon</t>
   </si>
   <si>
-    <t>Heptathalon</t>
-  </si>
-  <si>
     <t>Marathon</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>A 7-event athletic contest. specifically : a composite contest for female athletes that consists of the 100-meter hurdles, the high jump, the shot put, the 200-meter dash, the long jump, the javelin throw, and the 800-meter run</t>
+  </si>
+  <si>
+    <t>Heptathlon</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,23 +743,23 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/event_descriptions.xlsx
+++ b/data/event_descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/College/Senior Year (2022-2023)/Fall Semester (2022)/CS171/dmkelly848/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB0018-EAB4-894B-849C-A0C52AA967FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDC08F-3AA1-324D-A5C0-A17B9EC85AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{CF366075-380A-E34F-97A0-BD26EBF50283}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>This event is essentially an all-out sprint from the gun to the finish line. Perfecting the start is essential as is learning to run at top speed while staying relaxed. It is run on the straightaway of the track.</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Heptathlon</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59FE06-6F3E-5941-B11F-F1733284F812}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,209 +562,217 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
